--- a/Liste_Membres.xlsx
+++ b/Liste_Membres.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\BD2027\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12460" tabRatio="851"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8180" tabRatio="851"/>
   </bookViews>
   <sheets>
     <sheet name="Liste des membres" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>77 757 45 43</t>
   </si>
   <si>
-    <t>ABABAR</t>
-  </si>
-  <si>
     <t>LISTE #BD2027</t>
   </si>
   <si>
@@ -639,6 +636,9 @@
   </si>
   <si>
     <t>77 273 57 44</t>
+  </si>
+  <si>
+    <t>ABABACAR</t>
   </si>
 </sst>
 </file>
@@ -1265,10 +1265,10 @@
   <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1283,7 +1283,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1297,19 +1297,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>1</v>
@@ -1349,13 +1349,13 @@
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -1379,255 +1379,255 @@
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
       <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
         <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
         <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
         <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>51</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
         <v>53</v>
       </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>54</v>
-      </c>
-      <c r="D19" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
         <v>59</v>
-      </c>
-      <c r="B20" t="s">
-        <v>60</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
         <v>62</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
@@ -1636,84 +1636,84 @@
         <v>13</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -1721,58 +1721,58 @@
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
         <v>85</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
         <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" t="s">
-        <v>87</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -1780,432 +1780,432 @@
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" t="s">
         <v>90</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" t="s">
         <v>91</v>
-      </c>
-      <c r="C33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" t="s">
-        <v>92</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s">
         <v>93</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
         <v>94</v>
-      </c>
-      <c r="C34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" t="s">
-        <v>95</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" t="s">
         <v>98</v>
-      </c>
-      <c r="B36" t="s">
-        <v>99</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" t="s">
         <v>101</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="C37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" t="s">
         <v>105</v>
       </c>
-      <c r="B38" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" t="s">
-        <v>106</v>
-      </c>
       <c r="D38" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" t="s">
         <v>107</v>
       </c>
-      <c r="B39" t="s">
-        <v>108</v>
-      </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" t="s">
         <v>113</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="C42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" t="s">
         <v>116</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="C43" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" t="s">
         <v>121</v>
-      </c>
-      <c r="B45" t="s">
-        <v>122</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" t="s">
         <v>126</v>
-      </c>
-      <c r="B47" t="s">
-        <v>127</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" t="s">
         <v>132</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="C50" t="s">
-        <v>25</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="B51" t="s">
-        <v>133</v>
-      </c>
-      <c r="C51" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" t="s">
         <v>137</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="C52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" t="s">
         <v>140</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="C53" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54" t="s">
         <v>146</v>
       </c>
-      <c r="B54" t="s">
-        <v>147</v>
-      </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
     </row>
     <row r="56" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
     </row>
     <row r="57" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" t="s">
         <v>152</v>
       </c>
-      <c r="B57" t="s">
-        <v>153</v>
-      </c>
       <c r="C57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
     </row>
     <row r="58" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
     </row>
     <row r="59" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" t="s">
         <v>155</v>
       </c>
-      <c r="B59" t="s">
-        <v>156</v>
-      </c>
       <c r="C59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -2215,244 +2215,244 @@
         <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
     </row>
     <row r="61" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B61" t="s">
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
     </row>
     <row r="62" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" t="s">
         <v>159</v>
-      </c>
-      <c r="B62" t="s">
-        <v>160</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
     </row>
     <row r="63" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
     </row>
     <row r="65" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>163</v>
+      </c>
+      <c r="B65" t="s">
         <v>164</v>
       </c>
-      <c r="B65" t="s">
-        <v>165</v>
-      </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
     </row>
     <row r="66" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
     </row>
     <row r="67" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
     </row>
     <row r="68" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" t="s">
         <v>168</v>
       </c>
-      <c r="B68" t="s">
-        <v>169</v>
-      </c>
       <c r="C68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
     </row>
     <row r="69" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
     </row>
     <row r="70" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
     </row>
     <row r="71" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
     </row>
     <row r="72" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
     </row>
     <row r="73" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>176</v>
+      </c>
+      <c r="B73" t="s">
         <v>177</v>
       </c>
-      <c r="B73" t="s">
-        <v>178</v>
-      </c>
       <c r="C73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
     </row>
     <row r="74" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" t="s">
         <v>143</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="C74" t="s">
-        <v>25</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
     </row>
     <row r="75" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>

--- a/Liste_Membres.xlsx
+++ b/Liste_Membres.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\BD2027\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8180" tabRatio="851"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10710" windowHeight="5350" tabRatio="851"/>
   </bookViews>
   <sheets>
     <sheet name="Liste des membres" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="204">
   <si>
     <t>Numéro de téléphone</t>
   </si>
@@ -639,6 +639,15 @@
   </si>
   <si>
     <t>ABABACAR</t>
+  </si>
+  <si>
+    <t>Mame Faty Laye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Astou Laye </t>
+  </si>
+  <si>
+    <t>Sow</t>
   </si>
 </sst>
 </file>
@@ -1265,10 +1274,10 @@
   <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C69" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:G6"/>
+      <selection pane="bottomRight" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2458,11 +2467,26 @@
       <c r="F75" s="6"/>
     </row>
     <row r="76" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>201</v>
+      </c>
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
     </row>
     <row r="77" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>202</v>
+      </c>
+      <c r="B77" t="s">
+        <v>203</v>
+      </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>

--- a/Liste_Membres.xlsx
+++ b/Liste_Membres.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\BD2027\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10710" windowHeight="5350" tabRatio="851"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8180" tabRatio="851"/>
   </bookViews>
   <sheets>
     <sheet name="Liste des membres" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="208">
   <si>
     <t>Numéro de téléphone</t>
   </si>
@@ -641,13 +641,25 @@
     <t>ABABACAR</t>
   </si>
   <si>
-    <t>Mame Faty Laye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Astou Laye </t>
-  </si>
-  <si>
-    <t>Sow</t>
+    <t xml:space="preserve">Ousmane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aiisata </t>
+  </si>
+  <si>
+    <t>LY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assane </t>
+  </si>
+  <si>
+    <t>SARR</t>
+  </si>
+  <si>
+    <t>Daouda</t>
+  </si>
+  <si>
+    <t>THIOUNE</t>
   </si>
 </sst>
 </file>
@@ -1274,10 +1286,10 @@
   <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C69" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C67" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B78" sqref="B78"/>
+      <selection pane="bottomRight" activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2471,10 +2483,7 @@
         <v>201</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
-      </c>
-      <c r="C76" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -2492,16 +2501,34 @@
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>204</v>
+      </c>
+      <c r="B78" t="s">
+        <v>93</v>
+      </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
     </row>
     <row r="79" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>116</v>
+      </c>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
     </row>
     <row r="80" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>206</v>
+      </c>
+      <c r="B80" t="s">
+        <v>207</v>
+      </c>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
